--- a/pred_ohlcv/54_21/2019-10-09 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-09 LINK ohlcv.xlsx
@@ -5566,7 +5566,7 @@
         <v>-13608.68709278663</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-12047.43729278663</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-9587.39589278663</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-9434.86239278663</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-9067.087392786631</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-8987.18729278663</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-5075.14359278663</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-4964.60729278663</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-4975.69639278663</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-5022.25369278663</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-5586.81119278663</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-5130.748892786631</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-4337.996692786631</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-4337.996692786631</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-4337.996692786631</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-4295.86479278663</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-4290.86479278663</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-4485.53819278663</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-4529.17499278663</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-4546.89199278663</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-4639.52209278663</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-6432.11029278663</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-6432.11029278663</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-7132.175592786631</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-3770.867892786631</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-3737.513892786631</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-3811.681492786631</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4320.41829278663</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4280.63439278663</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-2631.79189278663</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-2908.67769278663</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-2908.67769278663</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-2908.67769278663</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-3538.42649278663</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-6791.203292786629</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-6665.42009278663</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-6665.42009278663</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-10703.23559278663</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-12269.52129278663</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-12082.64629278663</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-12091.85389278663</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-11973.78289278663</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-12039.88289278663</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-12022.06919278663</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-11922.97859278663</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-12005.57859278663</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-12817.39839278663</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-12317.39839278663</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-12929.69999278663</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-11192.44559278663</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-39510.87406982539</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-40145.54606982539</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-39545.03216982539</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-39545.03216982539</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-39665.03216982539</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-39106.11856982539</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-39106.86676982539</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-38886.50266982539</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-38700.44046982539</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-38306.32016982539</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-39121.82526982539</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-39268.1252698254</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-38586.15386982539</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-38749.57986982539</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-39204.87150092336</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-39530.82820092337</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-34494.84290092337</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-35883.63890092337</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-35464.59150092336</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-35448.76111408564</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-35205.38107874193</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-35431.34837874192</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-35431.34837874192</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-37431.34837874192</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-37431.34837874192</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-37933.53477874192</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-38080.54267874192</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-36099.90147874192</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-36157.40157874192</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-38865.83747874192</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-38865.83747874192</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-38905.52957874192</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-38117.81527874192</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-37990.41527874192</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-38039.01527874191</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-37391.88017874191</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-37347.17717874191</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-39021.58177874191</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-39021.91037874192</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-38905.79037874191</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-38850.12807874191</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-36782.33737874191</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-36766.78047874191</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-35220.32837874191</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-32279.56497874191</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>47773.67798128644</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>46148.391885233</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>41147.32078523299</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>45022.61131651039</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>46909.4683676617</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>45855.9610676617</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>44129.8753676617</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>41909.35409127585</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>54531.41558387782</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>60444.68961214812</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>48886.6025541314</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>49219.1633541314</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>43951.9262541314</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>43951.9262541314</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>42096.30641188273</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>41436.35941188273</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>40948.27071188273</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>42422.79961188273</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>42687.34191188273</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>42191.88431188273</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>42191.88431188273</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>37084.45081188273</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>35422.77281188273</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>35011.43141188273</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>39634.53421188273</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>39785.32191188273</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>39817.74241188273</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>37192.72052980253</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>40382.67757118532</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>47636.2976355461</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>53505.3553355461</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>55228.3067355461</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>56109.0200355461</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>53361.9364355461</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>52305.70611332387</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>52305.70611332387</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>52324.00611332388</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>52324.00611332388</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>54487.62051332388</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>59271.74501332387</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>64565.26941332388</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>71424.01851332387</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>72930.83640571748</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>69069.65444836764</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>62321.83364836764</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>61473.88304836764</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>67206.41876351916</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>70313.7943935463</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>70313.7943935463</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>67745.61689354629</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>65272.50479354629</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>67095.48477672839</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>66391.15227672839</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>66391.15227672839</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>54222.30927672839</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>53245.93067672839</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>53542.20957672838</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>56978.29497672839</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>56704.64617672838</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>123203.8256952399</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>124476.7899952399</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>140931.8814373108</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>121482.1139373108</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>127101.2298373108</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>126309.155652236</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>119902.943752236</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>109487.461252236</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>100101.943452236</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>117381.167552236</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>123075.4526540786</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>120857.0858615413</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>122318.9852615413</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>116363.6497615413</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>106033.4490615413</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>123590.1936632702</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>113052.4669632702</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>111500.3455632702</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>110340.3199632702</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>112901.9105632702</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>113966.5846632702</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>112113.4461632702</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>111332.1639632702</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>106929.3141490929</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>106929.3141490929</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>105853.2392490929</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>106003.5996490929</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>106003.5996490929</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>104207.9432490929</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>104207.9432490929</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>103056.6190490929</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-09 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-09 LINK ohlcv.xlsx
@@ -5592,7 +5592,7 @@
         <v>-12047.43729278663</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-9434.86239278663</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-9067.087392786631</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-8987.18729278663</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-5075.14359278663</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-4964.60729278663</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-4975.69639278663</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-5022.25369278663</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-5586.81119278663</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-5130.748892786631</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-4337.996692786631</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-4337.996692786631</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-4337.996692786631</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-4295.86479278663</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-4290.86479278663</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-4485.53819278663</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-4529.17499278663</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-4546.89199278663</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-4639.52209278663</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-6432.11029278663</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-6432.11029278663</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-7132.175592786631</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-3770.867892786631</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-3737.513892786631</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-3811.681492786631</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4320.41829278663</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4280.63439278663</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-2631.79189278663</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-2908.67769278663</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-2908.67769278663</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-2908.67769278663</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-2967.37769278663</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-2962.37769278663</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-3468.85809278663</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-3459.65049278663</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-3538.42649278663</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-3538.42649278663</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-6791.203292786629</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-6665.42009278663</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-6665.42009278663</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-10703.23559278663</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-12269.52129278663</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-12082.64629278663</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-12091.85389278663</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-11973.78289278663</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-12039.88289278663</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-12022.06919278663</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-11922.97859278663</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-12005.57859278663</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-12817.39839278663</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-12317.39839278663</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-12929.69999278663</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-11192.44559278663</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-11192.44559278663</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-11392.29639278663</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-11473.37769278663</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-15271.30259278663</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-14310.52379278663</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-14410.52379278663</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-13795.52379278663</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-11188.52379278663</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-11177.74389278663</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-11177.74389278663</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-11177.74389278663</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-11177.74389278663</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-11306.14659278663</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-11124.46059278663</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-11591.72459278663</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-11335.59449278663</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-10757.89449278663</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-10255.89449278663</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-9806.112292786629</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-9953.412292786628</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-10034.21997236293</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-9547.545272362928</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-9547.545272362928</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-9547.545272362928</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-8514.057324018557</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-5715.443824018557</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-6804.031324018557</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-6804.031324018557</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-6804.031372362928</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-8071.078472362928</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-9739.366672362929</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-39545.03216982539</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-39545.03216982539</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-39665.03216982539</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-39106.11856982539</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-39106.86676982539</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-38886.50266982539</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-38700.44046982539</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-38306.32016982539</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-39121.82526982539</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-39268.1252698254</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-38586.15386982539</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-38749.57986982539</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-38747.34296982539</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-38747.34296982539</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-38747.34296982539</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-40023.84086982539</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-40023.84086982539</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-40023.84086982539</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-42952.85456982539</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-42571.84516982539</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-40867.07756982539</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-40867.07756982539</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-40347.7740698254</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-38944.5965698254</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-38901.7651698254</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-38901.7651698254</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-38232.1954698254</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-38810.9614698254</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-38824.7389698254</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-40154.64800092336</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-39776.53790092336</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-40563.91700092336</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-40563.91700092336</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-40563.91700092336</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-40063.91700092336</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-39922.12570092336</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-39922.12570092336</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-39957.52570092336</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-39175.63090092336</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-39393.11840092336</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-39420.81630092336</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-39452.77820092336</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-39204.87150092336</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-39530.82820092337</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-34494.84290092337</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-34919.15220092337</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-35919.15220092337</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-35901.90500092337</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-35883.63890092337</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-35883.63890092337</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-35163.19890092337</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-35666.34350092337</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-35464.59150092336</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-35464.59150092336</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-34289.4961082658</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-32224.4961082658</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-31926.2247082658</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-30597.8840082658</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-30597.8840082658</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-35448.76111408564</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-35205.38107874193</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-35431.34837874192</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-35431.34837874192</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-37431.34837874192</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-37431.34837874192</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-37933.53477874192</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-38080.54267874192</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-36099.90147874192</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-36157.40157874192</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-38865.83747874192</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-38865.83747874192</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-38905.52957874192</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-38117.81527874192</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-37990.41527874192</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-38039.01527874191</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-37391.88017874191</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-37347.17717874191</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-39021.58177874191</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-39021.91037874192</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-38850.12807874191</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-36782.33737874191</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-36766.78047874191</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-35220.32837874191</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-32279.56497874191</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>47773.67798128644</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>46148.391885233</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>41147.32078523299</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>45022.61131651039</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>46909.4683676617</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>45855.9610676617</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>44129.8753676617</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>41909.35409127585</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>54531.41558387782</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>60444.68961214812</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>48886.6025541314</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>49219.1633541314</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>43951.9262541314</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>43951.9262541314</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>42096.30641188273</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>41436.35941188273</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>40948.27071188273</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>42422.79961188273</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>42687.34191188273</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>42191.88431188273</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>42191.88431188273</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>37084.45081188273</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>35422.77281188273</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>35011.43141188273</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>39634.53421188273</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>39785.32191188273</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>39817.74241188273</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>37192.72052980253</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>40382.67757118532</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>47636.2976355461</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>53505.3553355461</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>55228.3067355461</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>56109.0200355461</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>53361.9364355461</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>52305.70611332387</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>52305.70611332387</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>52324.00611332388</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>52324.00611332388</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>54487.62051332388</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>59271.74501332387</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>64565.26941332388</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>71424.01851332387</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>72930.83640571748</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>69069.65444836764</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>62321.83364836764</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>61473.88304836764</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>67206.41876351916</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>70313.7943935463</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>70313.7943935463</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>67745.61689354629</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>65272.50479354629</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>67095.48477672839</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>66391.15227672839</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>66391.15227672839</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>54222.30927672839</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>53245.93067672839</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>53542.20957672838</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>56978.29497672839</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>56704.64617672838</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>92762.45430139155</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>123203.8256952399</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>124476.7899952399</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>140931.8814373108</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>121482.1139373108</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>127101.2298373108</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>126309.155652236</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>119902.943752236</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>109487.461252236</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>100101.943452236</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>117381.167552236</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>123075.4526540786</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>120857.0858615413</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>122318.9852615413</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>116363.6497615413</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>106033.4490615413</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>98476.33970584403</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>100112.399505844</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>98586.30148584994</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>97765.56248584994</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>93088.45468584994</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>104849.6789858499</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>103174.1833858499</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>98838.02618584994</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>100068.7509858499</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>117388.7680632702</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>123590.1936632702</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>113052.4669632702</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>111500.3455632702</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>110340.3199632702</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>112901.9105632702</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>113966.5846632702</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>112113.4461632702</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>109931.0828632702</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>111332.1639632702</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>111953.8811632702</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>112002.3840632702</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>110319.7658632702</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>107298.7964632702</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>107122.6580632703</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>108498.8398632703</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>110979.5875632703</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>108657.4862632703</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>110199.0392632703</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>107290.4993490929</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>106929.3141490929</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>106929.3141490929</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>106728.6317490929</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>106728.6317490929</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>107421.3291490929</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>106209.0448490929</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>106251.9448490929</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>105853.2392490929</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>106003.5996490929</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>106003.5996490929</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>104553.6961490929</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>104207.9432490929</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>105346.391303981</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>104478.8740305839</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>107815.1229571867</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>109325.0830325323</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>108149.2011325323</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>94461.26783253232</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>88812.53623253232</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
